--- a/Assets/Datas/Excel/ExcelData.xlsx
+++ b/Assets/Datas/Excel/ExcelData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\NovelGame\Assets\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\NovelGame\Assets\Datas\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4411161-A37E-42AC-932E-8FAE4487F270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061C48F9-650E-485F-9A9B-7DC623E67F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31D8B507-FBA9-4D55-B4EA-8CF808B210CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{31D8B507-FBA9-4D55-B4EA-8CF808B210CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
-    <sheet name="TestChoices" sheetId="2" r:id="rId2"/>
+    <sheet name="Test2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -222,14 +223,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ChoicesCount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NextTalkData</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GetChoicesData</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -244,11 +237,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TestChoices,01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>END</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Select.Test2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EndingTest2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestChoices</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Select.Test3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EndingTest3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -618,7 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B79E2B1-5512-4191-864B-178F3362ED17}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -657,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -787,10 +796,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -798,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -875,29 +884,183 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CB038C-BB54-4755-B280-EC899F377ABB}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046152A5-D167-4BB4-B058-B7AE1C58D1D5}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" customWidth="1"/>
-    <col min="2" max="2" width="55.59765625" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" customWidth="1"/>
+    <col min="2" max="2" width="27.69921875" customWidth="1"/>
+    <col min="3" max="3" width="20.8984375" customWidth="1"/>
+    <col min="4" max="4" width="17.8984375" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" customWidth="1"/>
+    <col min="7" max="7" width="15.296875" customWidth="1"/>
+    <col min="8" max="8" width="16.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EFE821-3476-44AE-93B4-C0A010E2BEDE}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="24.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Datas/Excel/ExcelData.xlsx
+++ b/Assets/Datas/Excel/ExcelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\NovelGame\Assets\Datas\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061C48F9-650E-485F-9A9B-7DC623E67F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FABF03A-8FBC-48F5-9B60-256F852E1457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{31D8B507-FBA9-4D55-B4EA-8CF808B210CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31D8B507-FBA9-4D55-B4EA-8CF808B210CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -215,10 +215,6 @@
     <t>#01,01,00#02,01,00</t>
   </si>
   <si>
-    <t>aaa&lt;aaaaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1,03</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -258,6 +254,39 @@
   </si>
   <si>
     <t>EndingTest3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストの色変更&lt;color=yellow&gt;黄色&lt;/color&gt;、&lt;color=red&gt;赤色&lt;/color&gt;
+&lt;color=green&gt;緑色&lt;/color&gt;.</t>
+    <rPh sb="5" eb="8">
+      <t>イロヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#01,01,00#02,01,00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#01,02,02#02,02,02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#01,04,00#02,05,00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#01,08,00#02,06,00</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -304,12 +333,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B79E2B1-5512-4191-864B-178F3362ED17}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -666,18 +698,18 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -699,6 +731,9 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
@@ -726,7 +761,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -737,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -774,7 +809,7 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -796,10 +831,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -807,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -924,7 +959,7 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -932,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>35</v>
@@ -955,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -969,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EFE821-3476-44AE-93B4-C0A010E2BEDE}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1015,7 +1050,7 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1023,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>35</v>
@@ -1046,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -1060,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
